--- a/Templates/Sphere_comparison.xlsx
+++ b/Templates/Sphere_comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laghi\Documents\03_dottorato\04_F4E\01_JADE\Code\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{96904091-DA1B-4287-8F24-D6AB9CE79B7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EDE1BF4D-E382-4B19-9C79-E36DF0642381}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AA33A170-208D-4E7F-8F23-BE39F669FACD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AA33A170-208D-4E7F-8F23-BE39F669FACD}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
@@ -803,6 +803,27 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -873,27 +894,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1304,10 +1304,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.44140625" style="7" customWidth="1"/>
     <col min="2" max="2" width="21.21875" style="9" customWidth="1"/>
@@ -1327,12 +1327,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
@@ -1348,10 +1348,10 @@
       <c r="R1" s="18"/>
     </row>
     <row r="2" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
       <c r="H2" s="20"/>
@@ -1367,171 +1367,171 @@
       <c r="R2" s="18"/>
     </row>
     <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="43"/>
-      <c r="T3" s="35" t="s">
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="50"/>
+      <c r="T3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="36"/>
+      <c r="U3" s="43"/>
     </row>
     <row r="4" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="46"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="53"/>
       <c r="T4" s="1"/>
       <c r="U4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="46"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="53"/>
       <c r="T5" s="3"/>
       <c r="U5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="46"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="53"/>
       <c r="T6" s="4"/>
       <c r="U6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="49"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="56"/>
       <c r="T7" s="5"/>
       <c r="U7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:21" s="8" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32" t="s">
+      <c r="C8" s="38"/>
+      <c r="D8" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="34"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="41"/>
     </row>
     <row r="9" spans="2:21" s="8" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="54"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="58" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="58" t="s">
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="60"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:21" s="8" customFormat="1" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="55"/>
-      <c r="C10" s="57"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="21"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -1548,7 +1548,7 @@
       <c r="Q10" s="26"/>
       <c r="R10" s="26"/>
     </row>
-    <row r="11" spans="2:21" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="14"/>
@@ -1567,80 +1567,80 @@
       <c r="Q11" s="14"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="2:21" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="25"/>
       <c r="R12" s="28"/>
     </row>
-    <row r="13" spans="2:21" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="25"/>
       <c r="R13" s="28"/>
     </row>
-    <row r="14" spans="2:21" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H14" s="25"/>
       <c r="R14" s="28"/>
     </row>
-    <row r="15" spans="2:21" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H15" s="25"/>
       <c r="R15" s="28"/>
     </row>
-    <row r="16" spans="2:21" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H16" s="25"/>
       <c r="R16" s="28"/>
     </row>
-    <row r="17" spans="8:18" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H17" s="25"/>
       <c r="R17" s="28"/>
     </row>
-    <row r="18" spans="8:18" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H18" s="25"/>
       <c r="R18" s="28"/>
     </row>
-    <row r="19" spans="8:18" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H19" s="25"/>
       <c r="R19" s="28"/>
     </row>
-    <row r="20" spans="8:18" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H20" s="25"/>
       <c r="R20" s="28"/>
     </row>
-    <row r="21" spans="8:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
       <c r="Q21" s="14"/>
     </row>
-    <row r="22" spans="8:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
       <c r="P22" s="13"/>
     </row>
-    <row r="27" spans="8:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="8:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
       <c r="P27" s="13"/>
     </row>
-    <row r="32" spans="8:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="8:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N32" s="13"/>
       <c r="O32" s="13"/>
       <c r="P32" s="13"/>
     </row>
-    <row r="37" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="14:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N37" s="13"/>
       <c r="O37" s="13"/>
       <c r="P37" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="N9:R9"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:R8"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="B3:R7"/>
     <mergeCell ref="D1:E2"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="N9:R9"/>
   </mergeCells>
   <conditionalFormatting sqref="D11:R1048576">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="between">

--- a/Templates/Sphere_comparison.xlsx
+++ b/Templates/Sphere_comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laghi\Documents\03_dottorato\04_F4E\01_JADE\Code\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EDE1BF4D-E382-4B19-9C79-E36DF0642381}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0A510FDA-FF7D-46CF-911D-565AD62F260D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AA33A170-208D-4E7F-8F23-BE39F669FACD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AA33A170-208D-4E7F-8F23-BE39F669FACD}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
@@ -57,16 +57,16 @@
     <t>&lt; |5|%</t>
   </si>
   <si>
-    <t>Neutron Flux (Coarse energy bins)</t>
-  </si>
-  <si>
-    <t>Gamma Flux (Coarse energy bins)</t>
-  </si>
-  <si>
     <t>TALLIES</t>
   </si>
   <si>
     <t>SPHERE LEAKAGE COMPARISON RECAP</t>
+  </si>
+  <si>
+    <t>Neutron Flux (Coarse energy bins) Tally n.12</t>
+  </si>
+  <si>
+    <t>Gamma Flux (Coarse energy bins) Tally n. 22</t>
   </si>
 </sst>
 </file>
@@ -190,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="41">
     <border>
       <start/>
       <end/>
@@ -709,6 +709,19 @@
       <end style="medium">
         <color indexed="64"/>
       </end>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -722,7 +735,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -801,6 +814,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -925,7 +947,31 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -952,33 +998,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1298,13 +1320,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE38293-427D-4A21-874A-0915D97E4F4F}">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="B1:U37"/>
+  <dimension ref="B1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P22" sqref="P22"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1312,27 +1334,27 @@
     <col min="1" max="1" width="3.44140625" style="7" customWidth="1"/>
     <col min="2" max="2" width="21.21875" style="9" customWidth="1"/>
     <col min="3" max="3" width="21.21875" style="10" customWidth="1"/>
-    <col min="4" max="7" width="13.44140625" style="16" customWidth="1"/>
-    <col min="8" max="13" width="13.44140625" style="15" customWidth="1"/>
-    <col min="14" max="16" width="21.21875" style="15" customWidth="1"/>
-    <col min="17" max="17" width="21.21875" style="16" customWidth="1"/>
-    <col min="18" max="18" width="21.21875" style="29" customWidth="1"/>
-    <col min="19" max="19" width="9.21875" style="7" customWidth="1"/>
-    <col min="20" max="20" width="8.88671875" style="7"/>
-    <col min="21" max="21" width="14.6640625" style="7" customWidth="1"/>
-    <col min="22" max="23" width="8.88671875" style="7"/>
-    <col min="24" max="24" width="12" style="7" customWidth="1"/>
-    <col min="25" max="25" width="14.77734375" style="7" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="7"/>
+    <col min="4" max="8" width="13.44140625" style="16" customWidth="1"/>
+    <col min="9" max="15" width="13.44140625" style="15" customWidth="1"/>
+    <col min="16" max="18" width="21.21875" style="15" customWidth="1"/>
+    <col min="19" max="19" width="21.21875" style="16" customWidth="1"/>
+    <col min="20" max="20" width="21.21875" style="29" customWidth="1"/>
+    <col min="21" max="21" width="9.21875" style="7" customWidth="1"/>
+    <col min="22" max="22" width="8.88671875" style="7"/>
+    <col min="23" max="23" width="14.6640625" style="7" customWidth="1"/>
+    <col min="24" max="25" width="8.88671875" style="7"/>
+    <col min="26" max="26" width="12" style="7" customWidth="1"/>
+    <col min="27" max="27" width="14.77734375" style="7" customWidth="1"/>
+    <col min="28" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="44" t="s">
+    <row r="1" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
@@ -1345,16 +1367,18 @@
       <c r="O1" s="17"/>
       <c r="P1" s="17"/>
       <c r="Q1" s="17"/>
-      <c r="R1" s="18"/>
-    </row>
-    <row r="2" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="46"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="18"/>
+    </row>
+    <row r="2" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
@@ -1363,200 +1387,218 @@
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="18"/>
-    </row>
-    <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="48" t="s">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="18"/>
+    </row>
+    <row r="3" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="53"/>
+      <c r="V3" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="46"/>
+    </row>
+    <row r="4" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="56"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="56"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="56"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="57"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="59"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" s="8" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="44"/>
+    </row>
+    <row r="9" spans="2:23" s="8" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="33"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="50"/>
-      <c r="T3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="43"/>
-    </row>
-    <row r="4" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="53"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="51"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="53"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="51"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="53"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="56"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" s="8" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="41"/>
-    </row>
-    <row r="9" spans="2:21" s="8" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="30"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="36"/>
-    </row>
-    <row r="10" spans="2:21" s="8" customFormat="1" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="31"/>
-      <c r="C10" s="33"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="39"/>
+    </row>
+    <row r="10" spans="2:23" s="8" customFormat="1" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="34"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="21"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="22"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="21"/>
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
       <c r="Q10" s="26"/>
       <c r="R10" s="26"/>
-    </row>
-    <row r="11" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+    </row>
+    <row r="11" spans="2:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="13"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="24"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
@@ -1564,113 +1606,124 @@
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="27"/>
-    </row>
-    <row r="12" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="25"/>
-      <c r="R12" s="28"/>
-    </row>
-    <row r="13" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H13" s="25"/>
-      <c r="R13" s="28"/>
-    </row>
-    <row r="14" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H14" s="25"/>
-      <c r="R14" s="28"/>
-    </row>
-    <row r="15" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H15" s="25"/>
-      <c r="R15" s="28"/>
-    </row>
-    <row r="16" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H16" s="25"/>
-      <c r="R16" s="28"/>
-    </row>
-    <row r="17" spans="8:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H17" s="25"/>
-      <c r="R17" s="28"/>
-    </row>
-    <row r="18" spans="8:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H18" s="25"/>
-      <c r="R18" s="28"/>
-    </row>
-    <row r="19" spans="8:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H19" s="25"/>
-      <c r="R19" s="28"/>
-    </row>
-    <row r="20" spans="8:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H20" s="25"/>
-      <c r="R20" s="28"/>
-    </row>
-    <row r="21" spans="8:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="14"/>
-    </row>
-    <row r="22" spans="8:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="27"/>
+    </row>
+    <row r="12" spans="2:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="32"/>
+      <c r="I12" s="25"/>
+      <c r="T12" s="28"/>
+    </row>
+    <row r="13" spans="2:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="32"/>
+      <c r="I13" s="25"/>
+      <c r="T13" s="28"/>
+    </row>
+    <row r="14" spans="2:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="32"/>
+      <c r="I14" s="25"/>
+      <c r="T14" s="28"/>
+    </row>
+    <row r="15" spans="2:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="32"/>
+      <c r="I15" s="25"/>
+      <c r="T15" s="28"/>
+    </row>
+    <row r="16" spans="2:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="32"/>
+      <c r="I16" s="25"/>
+      <c r="T16" s="28"/>
+    </row>
+    <row r="17" spans="8:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="32"/>
+      <c r="I17" s="25"/>
+      <c r="T17" s="28"/>
+    </row>
+    <row r="18" spans="8:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="32"/>
+      <c r="I18" s="25"/>
+      <c r="T18" s="28"/>
+    </row>
+    <row r="19" spans="8:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="32"/>
+      <c r="I19" s="25"/>
+      <c r="T19" s="28"/>
+    </row>
+    <row r="20" spans="8:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="32"/>
+      <c r="I20" s="25"/>
+      <c r="T20" s="28"/>
+    </row>
+    <row r="21" spans="8:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="14"/>
+    </row>
+    <row r="22" spans="8:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P22" s="13"/>
-    </row>
-    <row r="27" spans="8:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+    </row>
+    <row r="27" spans="8:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P27" s="13"/>
-    </row>
-    <row r="32" spans="8:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+    </row>
+    <row r="32" spans="8:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P32" s="13"/>
-    </row>
-    <row r="37" spans="14:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+    </row>
+    <row r="37" spans="16:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:R8"/>
-    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="D8:T8"/>
+    <mergeCell ref="V3:W3"/>
     <mergeCell ref="B1:C2"/>
-    <mergeCell ref="B3:R7"/>
+    <mergeCell ref="B3:T7"/>
     <mergeCell ref="D1:E2"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="P9:T9"/>
   </mergeCells>
-  <conditionalFormatting sqref="D11:R1048576">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="between">
-      <formula>0.1</formula>
+  <conditionalFormatting sqref="D11:T1048576">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="between">
+      <formula>-0.05</formula>
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="lessThan">
+      <formula>-0.2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
       <formula>0.2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="between">
-      <formula>-0.2</formula>
-      <formula>-0.1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="between">
-      <formula>0.05</formula>
-      <formula>0.1</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
       <formula>-0.1</formula>
       <formula>-0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="between">
+      <formula>0.05</formula>
+      <formula>0.1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="between">
+      <formula>-0.2</formula>
+      <formula>-0.1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="between">
+      <formula>0.1</formula>
       <formula>0.2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
-      <formula>-0.2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
-      <formula>-0.05</formula>
-      <formula>0.05</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:R1048576">
+  <conditionalFormatting sqref="D11:T1048576">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/Templates/Sphere_comparison.xlsx
+++ b/Templates/Sphere_comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laghi\Documents\03_dottorato\04_F4E\01_JADE\Code\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0A510FDA-FF7D-46CF-911D-565AD62F260D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{75907593-923B-4747-853C-55AF341CDE4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AA33A170-208D-4E7F-8F23-BE39F669FACD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{AA33A170-208D-4E7F-8F23-BE39F669FACD}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="11" uniqueCount="11">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="14" uniqueCount="14">
   <si>
     <t>ZAID</t>
   </si>
@@ -68,12 +68,21 @@
   <si>
     <t>Gamma Flux (Coarse energy bins) Tally n. 22</t>
   </si>
+  <si>
+    <t>GLOBAL QUICK RESULT: % of cells per range of comparison differences</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Tot</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,8 +149,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,8 +205,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="41">
+  <borders count="51">
     <border>
       <start/>
       <end/>
@@ -730,12 +752,161 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <start style="medium">
+        <color indexed="64"/>
+      </start>
+      <end style="dotted">
+        <color indexed="64"/>
+      </end>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="dotted">
+        <color indexed="64"/>
+      </start>
+      <end style="dotted">
+        <color indexed="64"/>
+      </end>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="dotted">
+        <color indexed="64"/>
+      </start>
+      <end style="medium">
+        <color indexed="64"/>
+      </end>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="medium">
+        <color indexed="64"/>
+      </start>
+      <end style="medium">
+        <color indexed="64"/>
+      </end>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="medium">
+        <color indexed="64"/>
+      </start>
+      <end style="medium">
+        <color indexed="64"/>
+      </end>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="medium">
+        <color indexed="64"/>
+      </start>
+      <end style="medium">
+        <color indexed="64"/>
+      </end>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="medium">
+        <color indexed="64"/>
+      </start>
+      <end style="dotted">
+        <color indexed="64"/>
+      </end>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="dotted">
+        <color indexed="64"/>
+      </start>
+      <end style="dotted">
+        <color indexed="64"/>
+      </end>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="dotted">
+        <color indexed="64"/>
+      </start>
+      <end style="medium">
+        <color indexed="64"/>
+      </end>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="medium">
+        <color indexed="64"/>
+      </start>
+      <end style="medium">
+        <color indexed="64"/>
+      </end>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -825,6 +996,72 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="7" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="7" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="7" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="7" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="7" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="7" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="7" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="7" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="7" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -918,9 +1155,22 @@
     <xf numFmtId="10" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="7" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="7" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="7" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="7" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentuale" xfId="2" builtinId="5"/>
     <cellStyle name="Valore valido" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="9">
@@ -1322,11 +1572,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="B1:W37"/>
+  <dimension ref="B1:AN37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22:E23"/>
+      <selection pane="bottomLeft" activeCell="AD33" sqref="AD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1340,21 +1590,19 @@
     <col min="19" max="19" width="21.21875" style="16" customWidth="1"/>
     <col min="20" max="20" width="21.21875" style="29" customWidth="1"/>
     <col min="21" max="21" width="9.21875" style="7" customWidth="1"/>
-    <col min="22" max="22" width="8.88671875" style="7"/>
+    <col min="22" max="22" width="21.6640625" style="7" customWidth="1"/>
     <col min="23" max="23" width="14.6640625" style="7" customWidth="1"/>
-    <col min="24" max="25" width="8.88671875" style="7"/>
-    <col min="26" max="26" width="12" style="7" customWidth="1"/>
-    <col min="27" max="27" width="14.77734375" style="7" customWidth="1"/>
-    <col min="28" max="16384" width="8.88671875" style="7"/>
+    <col min="24" max="39" width="10.33203125" style="7" customWidth="1"/>
+    <col min="40" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+    <row r="1" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="61"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
@@ -1371,11 +1619,11 @@
       <c r="S1" s="17"/>
       <c r="T1" s="18"/>
     </row>
-    <row r="2" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63"/>
+    <row r="2" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="71"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
@@ -1392,186 +1640,207 @@
       <c r="S2" s="19"/>
       <c r="T2" s="18"/>
     </row>
-    <row r="3" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="51" t="s">
+    <row r="3" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="53"/>
-      <c r="V3" s="45" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="75"/>
+      <c r="V3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="W3" s="46"/>
-    </row>
-    <row r="4" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="56"/>
+      <c r="W3" s="68"/>
+    </row>
+    <row r="4" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="78"/>
       <c r="V4" s="1"/>
       <c r="W4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="56"/>
+    <row r="5" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="78"/>
       <c r="V5" s="3"/>
       <c r="W5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="56"/>
+    <row r="6" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="78"/>
       <c r="V6" s="4"/>
       <c r="W6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="57"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="59"/>
+    <row r="7" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="79"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="81"/>
       <c r="V7" s="5"/>
       <c r="W7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:23" s="8" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="40" t="s">
+    <row r="8" spans="2:40" s="8" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42" t="s">
+      <c r="C8" s="63"/>
+      <c r="D8" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="44"/>
-    </row>
-    <row r="9" spans="2:23" s="8" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="33"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="37" t="s">
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="66"/>
+    </row>
+    <row r="9" spans="2:40" s="8" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="55"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="37" t="s">
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="39"/>
-    </row>
-    <row r="10" spans="2:23" s="8" customFormat="1" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="34"/>
-      <c r="C10" s="36"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="61"/>
+      <c r="V9" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="53"/>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="53"/>
+      <c r="AI9" s="53"/>
+      <c r="AJ9" s="53"/>
+      <c r="AK9" s="53"/>
+      <c r="AL9" s="53"/>
+      <c r="AM9" s="53"/>
+      <c r="AN9" s="54"/>
+    </row>
+    <row r="10" spans="2:40" s="8" customFormat="1" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="56"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="21"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -1589,8 +1858,29 @@
       <c r="R10" s="26"/>
       <c r="S10" s="26"/>
       <c r="T10" s="26"/>
-    </row>
-    <row r="11" spans="2:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V10" s="33"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="50"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="50"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
+      <c r="AH10" s="50"/>
+      <c r="AI10" s="50"/>
+      <c r="AJ10" s="50"/>
+      <c r="AK10" s="50"/>
+      <c r="AL10" s="50"/>
+      <c r="AM10" s="51"/>
+      <c r="AN10" s="33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:40" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="14"/>
@@ -1610,28 +1900,191 @@
       <c r="R11" s="13"/>
       <c r="S11" s="14"/>
       <c r="T11" s="27"/>
-    </row>
-    <row r="12" spans="2:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V11" s="40"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="34"/>
+      <c r="AJ11" s="34"/>
+      <c r="AK11" s="34"/>
+      <c r="AL11" s="34"/>
+      <c r="AM11" s="35"/>
+      <c r="AN11" s="86" t="e">
+        <f>AVERAGE(W11:AM11)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:40" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="32"/>
       <c r="I12" s="25"/>
       <c r="T12" s="28"/>
-    </row>
-    <row r="13" spans="2:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V12" s="41"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="36"/>
+      <c r="AF12" s="36"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="36"/>
+      <c r="AI12" s="36"/>
+      <c r="AJ12" s="36"/>
+      <c r="AK12" s="36"/>
+      <c r="AL12" s="36"/>
+      <c r="AM12" s="37"/>
+      <c r="AN12" s="87" t="e">
+        <f t="shared" ref="AN12:AN14" si="0">AVERAGE(W12:AM12)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:40" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="32"/>
       <c r="I13" s="25"/>
       <c r="T13" s="28"/>
-    </row>
-    <row r="14" spans="2:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V13" s="41"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="36"/>
+      <c r="AI13" s="36"/>
+      <c r="AJ13" s="36"/>
+      <c r="AK13" s="36"/>
+      <c r="AL13" s="36"/>
+      <c r="AM13" s="37"/>
+      <c r="AN13" s="87" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="2:40" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H14" s="32"/>
       <c r="I14" s="25"/>
       <c r="T14" s="28"/>
-    </row>
-    <row r="15" spans="2:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V14" s="42"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="38"/>
+      <c r="AH14" s="38"/>
+      <c r="AI14" s="38"/>
+      <c r="AJ14" s="38"/>
+      <c r="AK14" s="38"/>
+      <c r="AL14" s="38"/>
+      <c r="AM14" s="39"/>
+      <c r="AN14" s="88" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="2:40" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H15" s="32"/>
       <c r="I15" s="25"/>
       <c r="T15" s="28"/>
-    </row>
-    <row r="16" spans="2:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V15" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="W15" s="43">
+        <f>SUM(W11:W14)</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="44">
+        <f t="shared" ref="X15:AN15" si="1">SUM(X11:X14)</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="89" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:40" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H16" s="32"/>
       <c r="I16" s="25"/>
       <c r="T16" s="28"/>
@@ -1682,13 +2135,14 @@
       <c r="R37" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:T8"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="B3:T7"/>
     <mergeCell ref="D1:E2"/>
+    <mergeCell ref="V9:AN9"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:I9"/>
@@ -1696,41 +2150,71 @@
     <mergeCell ref="P9:T9"/>
   </mergeCells>
   <conditionalFormatting sqref="D11:T1048576">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="between">
       <formula>-0.05</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>-0.2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
       <formula>0.2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="between">
       <formula>-0.1</formula>
       <formula>-0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="between">
       <formula>0.05</formula>
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="between">
       <formula>-0.2</formula>
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="12" operator="between">
       <formula>0.1</formula>
       <formula>0.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:T1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="A1:XFD8 A9:V9 AO9:XFD9 A10:XFD1048576">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Identical"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W11:AM14">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN11:AN14">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W15:AN15">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Templates/Sphere_comparison.xlsx
+++ b/Templates/Sphere_comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laghi\Documents\03_dottorato\04_F4E\01_JADE\Code\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{75907593-923B-4747-853C-55AF341CDE4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EFAB0A39-749F-49FE-8A7E-96F6C1C3DB3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{AA33A170-208D-4E7F-8F23-BE39F669FACD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AA33A170-208D-4E7F-8F23-BE39F669FACD}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +156,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -906,7 +921,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -1026,15 +1041,6 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="7" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="7" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="7" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="7" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1053,6 +1059,87 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="7" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="7" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="7" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1083,88 +1170,19 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="7" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="7" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="7" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="7" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="7" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="7" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="7" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="7" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1173,7 +1191,87 @@
     <cellStyle name="Percentuale" xfId="2" builtinId="5"/>
     <cellStyle name="Valore valido" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="2" tint="-0.499984740745262"/>
@@ -1574,9 +1672,9 @@
   </sheetPr>
   <dimension ref="B1:AN37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD33" sqref="AD33"/>
+      <selection pane="bottomLeft" activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1597,12 +1695,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
@@ -1620,10 +1718,10 @@
       <c r="T1" s="18"/>
     </row>
     <row r="2" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
@@ -1641,206 +1739,206 @@
       <c r="T2" s="18"/>
     </row>
     <row r="3" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="75"/>
-      <c r="V3" s="67" t="s">
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="65"/>
+      <c r="V3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="W3" s="68"/>
+      <c r="W3" s="58"/>
     </row>
     <row r="4" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="76"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="78"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="68"/>
       <c r="V4" s="1"/>
       <c r="W4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="76"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="78"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="68"/>
       <c r="V5" s="3"/>
       <c r="W5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="76"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="78"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="68"/>
       <c r="V6" s="4"/>
       <c r="W6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="79"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="80"/>
-      <c r="S7" s="80"/>
-      <c r="T7" s="81"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="71"/>
       <c r="V7" s="5"/>
       <c r="W7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:40" s="8" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="64" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="66"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="56"/>
     </row>
     <row r="9" spans="2:40" s="8" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="55"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="59" t="s">
+      <c r="B9" s="79"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="59" t="s">
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="61"/>
-      <c r="V9" s="52" t="s">
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="84"/>
+      <c r="T9" s="85"/>
+      <c r="V9" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="53"/>
-      <c r="AD9" s="53"/>
-      <c r="AE9" s="53"/>
-      <c r="AF9" s="53"/>
-      <c r="AG9" s="53"/>
-      <c r="AH9" s="53"/>
-      <c r="AI9" s="53"/>
-      <c r="AJ9" s="53"/>
-      <c r="AK9" s="53"/>
-      <c r="AL9" s="53"/>
-      <c r="AM9" s="53"/>
-      <c r="AN9" s="54"/>
+      <c r="W9" s="77"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="77"/>
+      <c r="AA9" s="77"/>
+      <c r="AB9" s="77"/>
+      <c r="AC9" s="77"/>
+      <c r="AD9" s="77"/>
+      <c r="AE9" s="77"/>
+      <c r="AF9" s="77"/>
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="77"/>
+      <c r="AI9" s="77"/>
+      <c r="AJ9" s="77"/>
+      <c r="AK9" s="77"/>
+      <c r="AL9" s="77"/>
+      <c r="AM9" s="77"/>
+      <c r="AN9" s="78"/>
     </row>
     <row r="10" spans="2:40" s="8" customFormat="1" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="56"/>
-      <c r="C10" s="58"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="21"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -1859,23 +1957,23 @@
       <c r="S10" s="26"/>
       <c r="T10" s="26"/>
       <c r="V10" s="33"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="50"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="50"/>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="50"/>
-      <c r="AH10" s="50"/>
-      <c r="AI10" s="50"/>
-      <c r="AJ10" s="50"/>
-      <c r="AK10" s="50"/>
-      <c r="AL10" s="50"/>
-      <c r="AM10" s="51"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="47"/>
+      <c r="AD10" s="47"/>
+      <c r="AE10" s="47"/>
+      <c r="AF10" s="47"/>
+      <c r="AG10" s="47"/>
+      <c r="AH10" s="47"/>
+      <c r="AI10" s="47"/>
+      <c r="AJ10" s="47"/>
+      <c r="AK10" s="47"/>
+      <c r="AL10" s="47"/>
+      <c r="AM10" s="48"/>
       <c r="AN10" s="33" t="s">
         <v>13</v>
       </c>
@@ -1901,7 +1999,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="27"/>
       <c r="V11" s="40"/>
-      <c r="W11" s="46"/>
+      <c r="W11" s="43"/>
       <c r="X11" s="34"/>
       <c r="Y11" s="34"/>
       <c r="Z11" s="34"/>
@@ -1918,7 +2016,7 @@
       <c r="AK11" s="34"/>
       <c r="AL11" s="34"/>
       <c r="AM11" s="35"/>
-      <c r="AN11" s="86" t="e">
+      <c r="AN11" s="49" t="e">
         <f>AVERAGE(W11:AM11)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1928,7 +2026,7 @@
       <c r="I12" s="25"/>
       <c r="T12" s="28"/>
       <c r="V12" s="41"/>
-      <c r="W12" s="47"/>
+      <c r="W12" s="44"/>
       <c r="X12" s="36"/>
       <c r="Y12" s="36"/>
       <c r="Z12" s="36"/>
@@ -1945,7 +2043,7 @@
       <c r="AK12" s="36"/>
       <c r="AL12" s="36"/>
       <c r="AM12" s="37"/>
-      <c r="AN12" s="87" t="e">
+      <c r="AN12" s="50" t="e">
         <f t="shared" ref="AN12:AN14" si="0">AVERAGE(W12:AM12)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1955,7 +2053,7 @@
       <c r="I13" s="25"/>
       <c r="T13" s="28"/>
       <c r="V13" s="41"/>
-      <c r="W13" s="47"/>
+      <c r="W13" s="44"/>
       <c r="X13" s="36"/>
       <c r="Y13" s="36"/>
       <c r="Z13" s="36"/>
@@ -1972,7 +2070,7 @@
       <c r="AK13" s="36"/>
       <c r="AL13" s="36"/>
       <c r="AM13" s="37"/>
-      <c r="AN13" s="87" t="e">
+      <c r="AN13" s="50" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1982,7 +2080,7 @@
       <c r="I14" s="25"/>
       <c r="T14" s="28"/>
       <c r="V14" s="42"/>
-      <c r="W14" s="48"/>
+      <c r="W14" s="45"/>
       <c r="X14" s="38"/>
       <c r="Y14" s="38"/>
       <c r="Z14" s="38"/>
@@ -1999,7 +2097,7 @@
       <c r="AK14" s="38"/>
       <c r="AL14" s="38"/>
       <c r="AM14" s="39"/>
-      <c r="AN14" s="88" t="e">
+      <c r="AN14" s="51" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2008,78 +2106,78 @@
       <c r="H15" s="32"/>
       <c r="I15" s="25"/>
       <c r="T15" s="28"/>
-      <c r="V15" s="33" t="s">
+      <c r="V15" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="W15" s="43">
+      <c r="W15" s="87">
         <f>SUM(W11:W14)</f>
         <v>0</v>
       </c>
-      <c r="X15" s="44">
+      <c r="X15" s="88">
         <f t="shared" ref="X15:AN15" si="1">SUM(X11:X14)</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="44">
+      <c r="Y15" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="44">
+      <c r="Z15" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="44">
+      <c r="AA15" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB15" s="44">
+      <c r="AB15" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC15" s="44">
+      <c r="AC15" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="44">
+      <c r="AD15" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE15" s="44">
+      <c r="AE15" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF15" s="44">
+      <c r="AF15" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG15" s="44">
+      <c r="AG15" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AH15" s="44">
+      <c r="AH15" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI15" s="44">
+      <c r="AI15" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AJ15" s="44">
+      <c r="AJ15" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK15" s="44">
+      <c r="AK15" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL15" s="44">
+      <c r="AL15" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM15" s="45">
+      <c r="AM15" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN15" s="89" t="e">
+      <c r="AN15" s="90" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2136,54 +2234,54 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="V9:AN9"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="P9:T9"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:T8"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="B3:T7"/>
     <mergeCell ref="D1:E2"/>
-    <mergeCell ref="V9:AN9"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="P9:T9"/>
   </mergeCells>
   <conditionalFormatting sqref="D11:T1048576">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="between">
       <formula>-0.05</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="lessThan">
       <formula>-0.2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="greaterThan">
       <formula>0.2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="between">
       <formula>-0.1</formula>
       <formula>-0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="between">
       <formula>0.05</formula>
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="between">
       <formula>-0.2</formula>
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="between">
       <formula>0.1</formula>
       <formula>0.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:T1048576">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD8 A9:V9 AO9:XFD9 A10:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"Identical"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2207,16 +2305,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W15:AN15">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Templates/Sphere_comparison.xlsx
+++ b/Templates/Sphere_comparison.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laghi\Documents\03_dottorato\04_F4E\01_JADE\Code\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.laghi\Documents\GitHub\JADE\Code\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EFAB0A39-749F-49FE-8A7E-96F6C1C3DB3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{37F8ED7B-829F-4C7B-A0AC-63DBD5F5E669}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AA33A170-208D-4E7F-8F23-BE39F669FACD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AA33A170-208D-4E7F-8F23-BE39F669FACD}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
+    <sheet name="Comparison (Abs diff)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="14" uniqueCount="14">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="24" uniqueCount="17">
   <si>
     <t>ZAID</t>
   </si>
@@ -60,9 +64,6 @@
     <t>TALLIES</t>
   </si>
   <si>
-    <t>SPHERE LEAKAGE COMPARISON RECAP</t>
-  </si>
-  <si>
     <t>Neutron Flux (Coarse energy bins) Tally n.12</t>
   </si>
   <si>
@@ -76,6 +77,18 @@
   </si>
   <si>
     <t>Tot</t>
+  </si>
+  <si>
+    <t>Zaid N.</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>SPHERE LEAKAGE % COMPARISON RECAP</t>
+  </si>
+  <si>
+    <t>SPHERE LEAKAGE ABSOLUTE COMPARISON RECAP</t>
   </si>
 </sst>
 </file>
@@ -172,7 +185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,8 +239,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="51">
+  <borders count="54">
     <border>
       <start/>
       <end/>
@@ -913,6 +932,43 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end style="dotted">
+        <color indexed="64"/>
+      </end>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end style="dotted">
+        <color indexed="64"/>
+      </end>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="dotted">
+        <color indexed="64"/>
+      </start>
+      <end style="medium">
+        <color indexed="64"/>
+      </end>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -921,7 +977,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -1068,6 +1124,51 @@
     <xf numFmtId="9" fontId="3" fillId="7" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="7" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="7" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="7" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="7" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1140,49 +1241,154 @@
     <xf numFmtId="10" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="7" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="7" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="7" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="7" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="9" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="9" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="9" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="9" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1191,7 +1397,97 @@
     <cellStyle name="Percentuale" xfId="2" builtinId="5"/>
     <cellStyle name="Valore valido" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="2" tint="-0.499984740745262"/>
@@ -1672,9 +1968,9 @@
   </sheetPr>
   <dimension ref="B1:AN37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z8" sqref="Z8"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1695,12 +1991,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="88"/>
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
@@ -1718,10 +2014,10 @@
       <c r="T1" s="18"/>
     </row>
     <row r="2" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
@@ -1739,206 +2035,210 @@
       <c r="T2" s="18"/>
     </row>
     <row r="3" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="65"/>
-      <c r="V3" s="57" t="s">
+      <c r="B3" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="80"/>
+      <c r="V3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="W3" s="58"/>
+      <c r="W3" s="73"/>
     </row>
     <row r="4" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="66"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="68"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="83"/>
       <c r="V4" s="1"/>
       <c r="W4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="66"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="68"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="83"/>
       <c r="V5" s="3"/>
       <c r="W5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="66"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="68"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="83"/>
       <c r="V6" s="4"/>
       <c r="W6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="69"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="71"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="85"/>
+      <c r="S7" s="85"/>
+      <c r="T7" s="86"/>
       <c r="V7" s="5"/>
       <c r="W7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:40" s="8" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="54" t="s">
+      <c r="C8" s="68"/>
+      <c r="D8" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="56"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="71"/>
     </row>
     <row r="9" spans="2:40" s="8" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="79"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="83" t="s">
+      <c r="B9" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="83" t="s">
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="66"/>
+      <c r="V9" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="84"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="84"/>
-      <c r="T9" s="85"/>
-      <c r="V9" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="W9" s="77"/>
-      <c r="X9" s="77"/>
-      <c r="Y9" s="77"/>
-      <c r="Z9" s="77"/>
-      <c r="AA9" s="77"/>
-      <c r="AB9" s="77"/>
-      <c r="AC9" s="77"/>
-      <c r="AD9" s="77"/>
-      <c r="AE9" s="77"/>
-      <c r="AF9" s="77"/>
-      <c r="AG9" s="77"/>
-      <c r="AH9" s="77"/>
-      <c r="AI9" s="77"/>
-      <c r="AJ9" s="77"/>
-      <c r="AK9" s="77"/>
-      <c r="AL9" s="77"/>
-      <c r="AM9" s="77"/>
-      <c r="AN9" s="78"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="58"/>
+      <c r="AF9" s="58"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="58"/>
+      <c r="AI9" s="58"/>
+      <c r="AJ9" s="58"/>
+      <c r="AK9" s="58"/>
+      <c r="AL9" s="58"/>
+      <c r="AM9" s="58"/>
+      <c r="AN9" s="59"/>
     </row>
     <row r="10" spans="2:40" s="8" customFormat="1" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="80"/>
-      <c r="C10" s="82"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="21"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -1975,7 +2275,7 @@
       <c r="AL10" s="47"/>
       <c r="AM10" s="48"/>
       <c r="AN10" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:40" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2106,78 +2406,78 @@
       <c r="H15" s="32"/>
       <c r="I15" s="25"/>
       <c r="T15" s="28"/>
-      <c r="V15" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="W15" s="87">
+      <c r="V15" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="W15" s="53">
         <f>SUM(W11:W14)</f>
         <v>0</v>
       </c>
-      <c r="X15" s="88">
+      <c r="X15" s="54">
         <f t="shared" ref="X15:AN15" si="1">SUM(X11:X14)</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="88">
+      <c r="Y15" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="88">
+      <c r="Z15" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="88">
+      <c r="AA15" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB15" s="88">
+      <c r="AB15" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC15" s="88">
+      <c r="AC15" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="88">
+      <c r="AD15" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE15" s="88">
+      <c r="AE15" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF15" s="88">
+      <c r="AF15" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG15" s="88">
+      <c r="AG15" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AH15" s="88">
+      <c r="AH15" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI15" s="88">
+      <c r="AI15" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AJ15" s="88">
+      <c r="AJ15" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK15" s="88">
+      <c r="AK15" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL15" s="88">
+      <c r="AL15" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM15" s="89">
+      <c r="AM15" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN15" s="90" t="e">
+      <c r="AN15" s="56" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2234,54 +2534,54 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:T8"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="B3:T7"/>
+    <mergeCell ref="D1:E2"/>
     <mergeCell ref="V9:AN9"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:I9"/>
     <mergeCell ref="J9:O9"/>
     <mergeCell ref="P9:T9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:T8"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="B3:T7"/>
-    <mergeCell ref="D1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="D11:T1048576">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="between">
       <formula>-0.05</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="7" operator="lessThan">
       <formula>-0.2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="greaterThan">
       <formula>0.2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="between">
       <formula>-0.1</formula>
       <formula>-0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="between">
       <formula>0.05</formula>
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="between">
       <formula>-0.2</formula>
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="between">
       <formula>0.1</formula>
       <formula>0.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:T1048576">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD8 A9:V9 AO9:XFD9 A10:XFD1048576">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>"Identical"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2308,4 +2608,372 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBA38F7-0F5E-49BC-9AE8-0680A08FC237}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="B1:U37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" style="94" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="101" customWidth="1"/>
+    <col min="5" max="8" width="13.44140625" style="102" customWidth="1"/>
+    <col min="9" max="15" width="13.44140625" style="105" customWidth="1"/>
+    <col min="16" max="18" width="21.21875" style="105" customWidth="1"/>
+    <col min="19" max="19" width="21.21875" style="102" customWidth="1"/>
+    <col min="20" max="20" width="21.21875" style="107" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="91"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="138"/>
+    </row>
+    <row r="2" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="76"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="139"/>
+      <c r="T2" s="137"/>
+      <c r="U2" s="138"/>
+    </row>
+    <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="115"/>
+    </row>
+    <row r="4" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="116"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="119"/>
+    </row>
+    <row r="5" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="116"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="118"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="119"/>
+    </row>
+    <row r="6" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="116"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="118"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="118"/>
+      <c r="O6" s="118"/>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="118"/>
+      <c r="T6" s="119"/>
+    </row>
+    <row r="7" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="120"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="122"/>
+      <c r="N7" s="122"/>
+      <c r="O7" s="122"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="122"/>
+      <c r="R7" s="122"/>
+      <c r="S7" s="122"/>
+      <c r="T7" s="123"/>
+    </row>
+    <row r="8" spans="2:21" s="8" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="124" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="125"/>
+      <c r="N8" s="125"/>
+      <c r="O8" s="125"/>
+      <c r="P8" s="125"/>
+      <c r="Q8" s="125"/>
+      <c r="R8" s="125"/>
+      <c r="S8" s="125"/>
+      <c r="T8" s="126"/>
+    </row>
+    <row r="9" spans="2:21" s="8" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="127" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="128"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="129"/>
+      <c r="P9" s="127"/>
+      <c r="Q9" s="128"/>
+      <c r="R9" s="128"/>
+      <c r="S9" s="128"/>
+      <c r="T9" s="129"/>
+    </row>
+    <row r="10" spans="2:21" s="8" customFormat="1" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="61"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="134"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="131"/>
+      <c r="M10" s="131"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="135"/>
+      <c r="R10" s="135"/>
+      <c r="S10" s="135"/>
+      <c r="T10" s="135"/>
+    </row>
+    <row r="11" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="11"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="96"/>
+      <c r="T11" s="100"/>
+    </row>
+    <row r="12" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="103"/>
+      <c r="I12" s="104"/>
+      <c r="T12" s="106"/>
+    </row>
+    <row r="13" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="103"/>
+      <c r="I13" s="104"/>
+      <c r="T13" s="106"/>
+    </row>
+    <row r="14" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="103"/>
+      <c r="I14" s="104"/>
+      <c r="T14" s="106"/>
+    </row>
+    <row r="15" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="103"/>
+      <c r="I15" s="104"/>
+      <c r="T15" s="106"/>
+    </row>
+    <row r="16" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="103"/>
+      <c r="I16" s="104"/>
+      <c r="T16" s="106"/>
+    </row>
+    <row r="17" spans="8:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="103"/>
+      <c r="I17" s="104"/>
+      <c r="T17" s="106"/>
+    </row>
+    <row r="18" spans="8:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="103"/>
+      <c r="I18" s="104"/>
+      <c r="T18" s="106"/>
+    </row>
+    <row r="19" spans="8:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="103"/>
+      <c r="I19" s="104"/>
+      <c r="T19" s="106"/>
+    </row>
+    <row r="20" spans="8:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="103"/>
+      <c r="I20" s="104"/>
+      <c r="T20" s="106"/>
+    </row>
+    <row r="21" spans="8:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q21" s="99"/>
+      <c r="R21" s="99"/>
+      <c r="S21" s="96"/>
+    </row>
+    <row r="22" spans="8:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P22" s="99"/>
+      <c r="Q22" s="99"/>
+      <c r="R22" s="99"/>
+    </row>
+    <row r="27" spans="8:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P27" s="99"/>
+      <c r="Q27" s="99"/>
+      <c r="R27" s="99"/>
+    </row>
+    <row r="32" spans="8:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P32" s="99"/>
+      <c r="Q32" s="99"/>
+      <c r="R32" s="99"/>
+    </row>
+    <row r="37" spans="16:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P37" s="99"/>
+      <c r="Q37" s="99"/>
+      <c r="R37" s="99"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="B3:T7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:T8"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B9:C10">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Identical"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Templates/Sphere_comparison.xlsx
+++ b/Templates/Sphere_comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.laghi\Documents\GitHub\JADE\Code\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{37F8ED7B-829F-4C7B-A0AC-63DBD5F5E669}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AAB6FCC3-2B2D-48CF-AE1E-5F8B88084DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AA33A170-208D-4E7F-8F23-BE39F669FACD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{AA33A170-208D-4E7F-8F23-BE39F669FACD}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="24" uniqueCount="17">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="26" uniqueCount="19">
   <si>
     <t>ZAID</t>
   </si>
@@ -90,12 +90,20 @@
   <si>
     <t>SPHERE LEAKAGE ABSOLUTE COMPARISON RECAP</t>
   </si>
+  <si>
+    <t>Target library Vs Reference library
+(Reference-Target)/Reference</t>
+  </si>
+  <si>
+    <t>Target library Vs Reference library
+Reference-Target</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,8 +192,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,14 +253,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="54">
+  <borders count="60">
     <border>
       <start/>
       <end/>
@@ -967,6 +975,84 @@
       </end>
       <top/>
       <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="medium">
+        <color indexed="64"/>
+      </start>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end style="medium">
+        <color indexed="64"/>
+      </end>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -977,7 +1063,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -1139,6 +1225,141 @@
     <xf numFmtId="9" fontId="12" fillId="7" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="9" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="9" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="9" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="9" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1169,76 +1390,13 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1247,63 +1405,12 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="9" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="9" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="9" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="9" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1349,46 +1456,61 @@
     <xf numFmtId="49" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="9" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="9" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="9" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1397,7 +1519,7 @@
     <cellStyle name="Percentuale" xfId="2" builtinId="5"/>
     <cellStyle name="Valore valido" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="10">
     <dxf>
       <font>
         <color theme="2" tint="-0.499984740745262"/>
@@ -1405,166 +1527,6 @@
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1968,9 +1930,9 @@
   </sheetPr>
   <dimension ref="B1:AN37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomLeft" activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1991,19 +1953,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="149" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="151"/>
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
       <c r="O1" s="17"/>
@@ -2013,18 +1977,18 @@
       <c r="S1" s="17"/>
       <c r="T1" s="18"/>
     </row>
-    <row r="2" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="76"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+    <row r="2" spans="2:40" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="87"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="152"/>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
@@ -2035,210 +1999,210 @@
       <c r="T2" s="18"/>
     </row>
     <row r="3" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="80"/>
-      <c r="V3" s="72" t="s">
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="91"/>
+      <c r="V3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="W3" s="73"/>
+      <c r="W3" s="84"/>
     </row>
     <row r="4" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="81"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="83"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="94"/>
       <c r="V4" s="1"/>
       <c r="W4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="81"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="83"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="94"/>
       <c r="V5" s="3"/>
       <c r="W5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="83"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="93"/>
+      <c r="S6" s="93"/>
+      <c r="T6" s="94"/>
       <c r="V6" s="4"/>
       <c r="W6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="84"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="85"/>
-      <c r="S7" s="85"/>
-      <c r="T7" s="86"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="96"/>
+      <c r="S7" s="96"/>
+      <c r="T7" s="97"/>
       <c r="V7" s="5"/>
       <c r="W7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:40" s="8" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="69" t="s">
+      <c r="C8" s="79"/>
+      <c r="D8" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="70"/>
-      <c r="T8" s="71"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="82"/>
     </row>
     <row r="9" spans="2:40" s="8" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="64" t="s">
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="66"/>
-      <c r="V9" s="57" t="s">
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="110"/>
+      <c r="S9" s="110"/>
+      <c r="T9" s="111"/>
+      <c r="V9" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="58"/>
-      <c r="AF9" s="58"/>
-      <c r="AG9" s="58"/>
-      <c r="AH9" s="58"/>
-      <c r="AI9" s="58"/>
-      <c r="AJ9" s="58"/>
-      <c r="AK9" s="58"/>
-      <c r="AL9" s="58"/>
-      <c r="AM9" s="58"/>
-      <c r="AN9" s="59"/>
+      <c r="W9" s="103"/>
+      <c r="X9" s="103"/>
+      <c r="Y9" s="103"/>
+      <c r="Z9" s="103"/>
+      <c r="AA9" s="103"/>
+      <c r="AB9" s="103"/>
+      <c r="AC9" s="103"/>
+      <c r="AD9" s="103"/>
+      <c r="AE9" s="103"/>
+      <c r="AF9" s="103"/>
+      <c r="AG9" s="103"/>
+      <c r="AH9" s="103"/>
+      <c r="AI9" s="103"/>
+      <c r="AJ9" s="103"/>
+      <c r="AK9" s="103"/>
+      <c r="AL9" s="103"/>
+      <c r="AM9" s="103"/>
+      <c r="AN9" s="104"/>
     </row>
     <row r="10" spans="2:40" s="8" customFormat="1" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="61"/>
-      <c r="C10" s="63"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="108"/>
       <c r="D10" s="21"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -2533,55 +2497,56 @@
       <c r="R37" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="V9:AN9"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="P9:T9"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:T8"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="B3:T7"/>
     <mergeCell ref="D1:E2"/>
-    <mergeCell ref="V9:AN9"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="F1:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="D11:T1048576">
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="between">
       <formula>-0.05</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="lessThan">
       <formula>-0.2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>0.2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="between">
       <formula>-0.1</formula>
       <formula>-0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="between">
       <formula>0.05</formula>
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="between">
       <formula>-0.2</formula>
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="between">
       <formula>0.1</formula>
       <formula>0.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:T1048576">
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD8 A9:V9 AO9:XFD9 A10:XFD1048576">
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+  <conditionalFormatting sqref="A3:XFD8 A9:V9 AO9:XFD9 A10:XFD1048576 A1:F1 A2:E2 M1:XFD2">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"Identical"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2615,358 +2580,359 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B1:U37"/>
+  <dimension ref="B1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.44140625" style="7" customWidth="1"/>
     <col min="2" max="2" width="21.21875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="21.21875" style="94" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="101" customWidth="1"/>
-    <col min="5" max="8" width="13.44140625" style="102" customWidth="1"/>
-    <col min="9" max="15" width="13.44140625" style="105" customWidth="1"/>
-    <col min="16" max="18" width="21.21875" style="105" customWidth="1"/>
-    <col min="19" max="19" width="21.21875" style="102" customWidth="1"/>
-    <col min="20" max="20" width="21.21875" style="107" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" style="58" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="65" customWidth="1"/>
+    <col min="5" max="8" width="13.44140625" style="66" customWidth="1"/>
+    <col min="9" max="15" width="13.44140625" style="69" customWidth="1"/>
+    <col min="16" max="18" width="21.21875" style="69" customWidth="1"/>
+    <col min="19" max="19" width="21.21875" style="66" customWidth="1"/>
+    <col min="20" max="20" width="21.21875" style="71" customWidth="1"/>
     <col min="21" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="74" t="s">
+    <row r="1" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="136"/>
-      <c r="Q1" s="136"/>
-      <c r="R1" s="136"/>
-      <c r="S1" s="136"/>
-      <c r="T1" s="137"/>
-      <c r="U1" s="138"/>
-    </row>
-    <row r="2" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="76"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="137"/>
-      <c r="U2" s="138"/>
-    </row>
-    <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="112" t="s">
+      <c r="C1" s="115"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="141" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="135"/>
+    </row>
+    <row r="2" spans="2:20" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="87"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="137"/>
+      <c r="T2" s="135"/>
+    </row>
+    <row r="3" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="115"/>
-    </row>
-    <row r="4" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="116"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="119"/>
-    </row>
-    <row r="5" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="116"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="118"/>
-      <c r="N5" s="118"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="119"/>
-    </row>
-    <row r="6" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="116"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="119"/>
-    </row>
-    <row r="7" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="120"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
-      <c r="S7" s="122"/>
-      <c r="T7" s="123"/>
-    </row>
-    <row r="8" spans="2:21" s="8" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="67" t="s">
+      <c r="C3" s="120"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="121"/>
+      <c r="T3" s="122"/>
+    </row>
+    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="123"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="126"/>
+    </row>
+    <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="123"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="125"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="125"/>
+      <c r="R5" s="125"/>
+      <c r="S5" s="125"/>
+      <c r="T5" s="126"/>
+    </row>
+    <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="123"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="126"/>
+    </row>
+    <row r="7" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="127"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="129"/>
+      <c r="R7" s="129"/>
+      <c r="S7" s="129"/>
+      <c r="T7" s="130"/>
+    </row>
+    <row r="8" spans="2:20" s="8" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="124" t="s">
+      <c r="C8" s="79"/>
+      <c r="D8" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="125"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="125"/>
-      <c r="R8" s="125"/>
-      <c r="S8" s="125"/>
-      <c r="T8" s="126"/>
-    </row>
-    <row r="9" spans="2:21" s="8" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="60" t="s">
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="132"/>
+      <c r="N8" s="132"/>
+      <c r="O8" s="132"/>
+      <c r="P8" s="132"/>
+      <c r="Q8" s="132"/>
+      <c r="R8" s="132"/>
+      <c r="S8" s="132"/>
+      <c r="T8" s="133"/>
+    </row>
+    <row r="9" spans="2:20" s="8" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="127" t="s">
+      <c r="D9" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="127" t="s">
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="128"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="128"/>
-      <c r="N9" s="128"/>
-      <c r="O9" s="129"/>
-      <c r="P9" s="127"/>
-      <c r="Q9" s="128"/>
-      <c r="R9" s="128"/>
-      <c r="S9" s="128"/>
-      <c r="T9" s="129"/>
-    </row>
-    <row r="10" spans="2:21" s="8" customFormat="1" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="61"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="132"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="134"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="131"/>
-      <c r="M10" s="131"/>
-      <c r="N10" s="132"/>
-      <c r="O10" s="133"/>
-      <c r="P10" s="133"/>
-      <c r="Q10" s="135"/>
-      <c r="R10" s="135"/>
-      <c r="S10" s="135"/>
-      <c r="T10" s="135"/>
-    </row>
-    <row r="11" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="113"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="113"/>
+      <c r="N9" s="113"/>
+      <c r="O9" s="114"/>
+      <c r="P9" s="112"/>
+      <c r="Q9" s="113"/>
+      <c r="R9" s="113"/>
+      <c r="S9" s="113"/>
+      <c r="T9" s="114"/>
+    </row>
+    <row r="10" spans="2:20" s="8" customFormat="1" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="106"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="77"/>
+    </row>
+    <row r="11" spans="2:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="100"/>
-    </row>
-    <row r="12" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="103"/>
-      <c r="I12" s="104"/>
-      <c r="T12" s="106"/>
-    </row>
-    <row r="13" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H13" s="103"/>
-      <c r="I13" s="104"/>
-      <c r="T13" s="106"/>
-    </row>
-    <row r="14" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H14" s="103"/>
-      <c r="I14" s="104"/>
-      <c r="T14" s="106"/>
-    </row>
-    <row r="15" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H15" s="103"/>
-      <c r="I15" s="104"/>
-      <c r="T15" s="106"/>
-    </row>
-    <row r="16" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H16" s="103"/>
-      <c r="I16" s="104"/>
-      <c r="T16" s="106"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="64"/>
+    </row>
+    <row r="12" spans="2:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="67"/>
+      <c r="I12" s="68"/>
+      <c r="T12" s="70"/>
+    </row>
+    <row r="13" spans="2:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="67"/>
+      <c r="I13" s="68"/>
+      <c r="T13" s="70"/>
+    </row>
+    <row r="14" spans="2:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="67"/>
+      <c r="I14" s="68"/>
+      <c r="T14" s="70"/>
+    </row>
+    <row r="15" spans="2:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="67"/>
+      <c r="I15" s="68"/>
+      <c r="T15" s="70"/>
+    </row>
+    <row r="16" spans="2:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="67"/>
+      <c r="I16" s="68"/>
+      <c r="T16" s="70"/>
     </row>
     <row r="17" spans="8:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H17" s="103"/>
-      <c r="I17" s="104"/>
-      <c r="T17" s="106"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="68"/>
+      <c r="T17" s="70"/>
     </row>
     <row r="18" spans="8:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H18" s="103"/>
-      <c r="I18" s="104"/>
-      <c r="T18" s="106"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="68"/>
+      <c r="T18" s="70"/>
     </row>
     <row r="19" spans="8:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H19" s="103"/>
-      <c r="I19" s="104"/>
-      <c r="T19" s="106"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="68"/>
+      <c r="T19" s="70"/>
     </row>
     <row r="20" spans="8:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H20" s="103"/>
-      <c r="I20" s="104"/>
-      <c r="T20" s="106"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="68"/>
+      <c r="T20" s="70"/>
     </row>
     <row r="21" spans="8:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q21" s="99"/>
-      <c r="R21" s="99"/>
-      <c r="S21" s="96"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="60"/>
     </row>
     <row r="22" spans="8:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P22" s="99"/>
-      <c r="Q22" s="99"/>
-      <c r="R22" s="99"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63"/>
     </row>
     <row r="27" spans="8:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P27" s="99"/>
-      <c r="Q27" s="99"/>
-      <c r="R27" s="99"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
     </row>
     <row r="32" spans="8:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P32" s="99"/>
-      <c r="Q32" s="99"/>
-      <c r="R32" s="99"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
+      <c r="R32" s="63"/>
     </row>
     <row r="37" spans="16:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P37" s="99"/>
-      <c r="Q37" s="99"/>
-      <c r="R37" s="99"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="B3:T7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:T8"/>
+    <mergeCell ref="F1:L2"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:I9"/>
     <mergeCell ref="J9:O9"/>
     <mergeCell ref="P9:T9"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="B3:T7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:T8"/>
   </mergeCells>
   <conditionalFormatting sqref="B9:C10">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
